--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/109.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/109.xlsx
@@ -479,13 +479,13 @@
         <v>9.658173921157518</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.460405917796578</v>
+        <v>-8.471979513508664</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.186993349732381</v>
+        <v>-2.181992090046842</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.899368189715175</v>
+        <v>-5.920394428078987</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>9.270382103672953</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.151744969353922</v>
+        <v>-9.16598939484572</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.101539889084435</v>
+        <v>-2.096590998610263</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.820408511276725</v>
+        <v>-5.842167918599674</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>8.845761759316771</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.725292572244259</v>
+        <v>-9.741527027767999</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.197414822794395</v>
+        <v>-2.190881763676374</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.668930567397955</v>
+        <v>-5.694395096425112</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>8.450338248269267</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.37724997685369</v>
+        <v>-10.39568393925484</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.097167059935299</v>
+        <v>-2.090948216085479</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.557030655009722</v>
+        <v>-5.576328709398426</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>8.108170393317844</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.05332340329758</v>
+        <v>-11.07411398021025</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.223664889992056</v>
+        <v>-2.217917369044538</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.095854287409921</v>
+        <v>-5.119315694102294</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>7.849766365403833</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.55614638623692</v>
+        <v>-11.57972562365486</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.003871309885159</v>
+        <v>-1.994968543952785</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.004234352123522</v>
+        <v>-5.026556728468665</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>7.699664555381856</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.17168100434067</v>
+        <v>-12.19545662630124</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.858468194524949</v>
+        <v>-1.849120290295957</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.587768198728216</v>
+        <v>-4.606149791917999</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>7.672727605335171</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.78167757834237</v>
+        <v>-12.80619946156492</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.776890055518154</v>
+        <v>-1.769087043024485</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.005029799242989</v>
+        <v>-4.023961269152124</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>7.778084302142544</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.40151956408105</v>
+        <v>-13.42639493948033</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.696084362379021</v>
+        <v>-1.689433472535424</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.63959744232473</v>
+        <v>-3.65817542005714</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>8.019886741048783</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.25771689302141</v>
+        <v>-14.2866770669073</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.523265964868237</v>
+        <v>-1.517047121018417</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.133894152760219</v>
+        <v>-3.154933483426873</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>8.381454624796442</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.90607391434937</v>
+        <v>-14.9400353479208</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.386948907680185</v>
+        <v>-1.380206371716696</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.716105676777899</v>
+        <v>-2.734133777790956</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>8.840860850375613</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.64281707216182</v>
+        <v>-15.67655593658494</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.222352476354005</v>
+        <v>-1.217822539570768</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.112642161894219</v>
+        <v>-2.130356047639074</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>9.366786162454453</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.29127883191251</v>
+        <v>-16.32939052548477</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.004863141547251</v>
+        <v>-1.001105650631676</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.410698345035076</v>
+        <v>-1.42749576958101</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>9.916812527202852</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.92955478005234</v>
+        <v>-16.96715587381377</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.781966685666865</v>
+        <v>-0.7772534566438436</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.239176085505623</v>
+        <v>-1.253394326391737</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>10.45499252922824</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.78470472476536</v>
+        <v>-17.82047289612895</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5938826630426283</v>
+        <v>-0.588973049476981</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7141223723410405</v>
+        <v>-0.7315220428176944</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>10.94012508892581</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.65305171074284</v>
+        <v>-18.69071826601849</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2860040694165981</v>
+        <v>-0.283424885756778</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.501176066620366</v>
+        <v>-0.5169784761503293</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>11.34491997972862</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.4016564949299</v>
+        <v>-19.44005621916468</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1590611010632221</v>
+        <v>-0.1585766858580782</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0931806331636565</v>
+        <v>-0.1058670746172891</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>11.64999973175678</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.07585772206742</v>
+        <v>-20.11400869254821</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07650870396795506</v>
+        <v>0.07539585822640835</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04825551443551021</v>
+        <v>0.03847556421274084</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>11.8369082144315</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.56568004828492</v>
+        <v>-20.60342515737761</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1705899921885986</v>
+        <v>0.1695949771726274</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2976376989647084</v>
+        <v>0.2897823172596727</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>11.89942272675042</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.21220414721504</v>
+        <v>-21.25104900974643</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4156386244771854</v>
+        <v>0.4136878713537682</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4357222170363932</v>
+        <v>0.4362720937557457</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>11.84033478781929</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.63680062067505</v>
+        <v>-21.67563239090361</v>
       </c>
       <c r="F22" t="n">
-        <v>0.527302875414267</v>
+        <v>0.5255223222277923</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6171684421198748</v>
+        <v>0.6186609646438316</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>11.66764689703361</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.00824234459766</v>
+        <v>-22.04929980630932</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6706635915311675</v>
+        <v>0.6672857773980022</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6488387226940101</v>
+        <v>0.6555681663546573</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>11.40303291993526</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.30301554307913</v>
+        <v>-22.34683548069038</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8562993535240014</v>
+        <v>0.8534845084130304</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7973316215248673</v>
+        <v>0.805226280138428</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>11.06729323089182</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.44779022790293</v>
+        <v>-22.49045804286412</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8657912730842529</v>
+        <v>0.8631204433045407</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9034840129655821</v>
+        <v>0.9116536099388193</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>10.6880395987397</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.66966548416167</v>
+        <v>-22.71224165300296</v>
       </c>
       <c r="F26" t="n">
-        <v>1.029772366176872</v>
+        <v>1.025530460056153</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6975682738709146</v>
+        <v>0.7126244221388995</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>10.29827910887316</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.54232974672304</v>
+        <v>-22.58468334641602</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9912548112165137</v>
+        <v>0.985939336262773</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5861527766878257</v>
+        <v>0.5983548029363144</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>9.921922508622341</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.64789298453587</v>
+        <v>-22.69039059956012</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9894611657271972</v>
+        <v>0.9833994295114781</v>
       </c>
       <c r="G28" t="n">
-        <v>0.150925353320326</v>
+        <v>0.1623287490954694</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>9.582552006767076</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.38858683445265</v>
+        <v>-22.43327086405146</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9566649471086734</v>
+        <v>0.9510221645838896</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.08529906685293741</v>
+        <v>-0.06869802684962877</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>9.303357305451854</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.23472609145668</v>
+        <v>-22.28001236698621</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8937171550456545</v>
+        <v>0.8854297273468419</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.5505078637279898</v>
+        <v>-0.5353862539457962</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>9.096431121510449</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.77085270947149</v>
+        <v>-21.81606043118397</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8868044191452231</v>
+        <v>0.8769328228025617</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.8422436479501718</v>
+        <v>-0.8278552071271148</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>8.977241298224392</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.30035462224838</v>
+        <v>-21.34705486648481</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8328117622259449</v>
+        <v>0.8247338113725998</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.263606322608284</v>
+        <v>-1.247961020712421</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>8.947240384156999</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.09454362157644</v>
+        <v>-21.13861231294169</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7376830897779633</v>
+        <v>0.7289243391768485</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.673316847737259</v>
+        <v>-1.658352345589166</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>9.005805468116495</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.60300620368668</v>
+        <v>-20.64542526489387</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6911530454784688</v>
+        <v>0.6828001562654475</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.057890151410121</v>
+        <v>-2.041930634246057</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>9.150656546586021</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.21608937780515</v>
+        <v>-20.25954273093684</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6434970631345859</v>
+        <v>0.634699035624946</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.255308985960508</v>
+        <v>-2.238838868985617</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>9.364652541034792</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.66215404457172</v>
+        <v>-19.70479567492722</v>
       </c>
       <c r="F36" t="n">
-        <v>0.659744610961168</v>
+        <v>0.6515881062907726</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.578099712523264</v>
+        <v>-2.562637702867186</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>9.633370821157555</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.29037192077522</v>
+        <v>-19.32989758305439</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5800910404721066</v>
+        <v>0.5727986277892652</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.810998687774729</v>
+        <v>-2.795039170610665</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>9.939924743869216</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.58759019653421</v>
+        <v>-18.6254269517468</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7536295146391856</v>
+        <v>0.7470048094012722</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.87646020198336</v>
+        <v>-2.865973267407137</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>10.26514754022299</v>
       </c>
       <c r="E39" t="n">
-        <v>-18.13153291934552</v>
+        <v>-18.17046942799682</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8471085569291097</v>
+        <v>0.8409944515020237</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.798927584554658</v>
+        <v>-2.789488034205773</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>10.59749899332879</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.53788863159314</v>
+        <v>-17.57232138806688</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7337946758339706</v>
+        <v>0.7306394308491146</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.854059271821166</v>
+        <v>-2.84528742891721</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>10.91721008805017</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.98255242195565</v>
+        <v>-17.0213841921842</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8931018168120934</v>
+        <v>0.8898811103130287</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.013667535764649</v>
+        <v>-3.009333983524038</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>11.21551815098326</v>
       </c>
       <c r="E42" t="n">
-        <v>-16.3400345676951</v>
+        <v>-16.37531832385355</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8725338090477417</v>
+        <v>0.8695356716969864</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.157604313206585</v>
+        <v>-3.154435975918887</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>11.48709987421448</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.77880682177882</v>
+        <v>-15.81310865522415</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8922639094302229</v>
+        <v>0.8934422166859782</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.170343123871585</v>
+        <v>-3.169832524060757</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>11.72167885720727</v>
       </c>
       <c r="E44" t="n">
-        <v>-15.18943062475284</v>
+        <v>-15.22209592034295</v>
       </c>
       <c r="F44" t="n">
-        <v>0.97575352465191</v>
+        <v>0.9752167402353993</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.327555496395031</v>
+        <v>-3.330854756711146</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>11.91828192921496</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.67656584553391</v>
+        <v>-14.71057964831671</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9390165228780267</v>
+        <v>0.942158675560041</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.423914845310135</v>
+        <v>-3.429060120326934</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>12.07376720319917</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.20549169698576</v>
+        <v>-14.24228106797101</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7478689013888261</v>
+        <v>0.7532891147653007</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.453961680331897</v>
+        <v>-3.457810817367364</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>12.18633638668144</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.4307808609323</v>
+        <v>-13.47059455387399</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7995834976136441</v>
+        <v>0.8056321415265215</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.328864726679204</v>
+        <v>-3.335319231980175</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>12.2602635962368</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.86103002586607</v>
+        <v>-12.8987227657474</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7228233260526041</v>
+        <v>0.7294087543819924</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.346251304853016</v>
+        <v>-3.353740102078484</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>12.292215057898</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.44813807114655</v>
+        <v>-12.48275411986008</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6837166174643684</v>
+        <v>0.6936013061098716</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.480892547277327</v>
+        <v>-3.486024729991283</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>12.28518080411476</v>
       </c>
       <c r="E50" t="n">
-        <v>-11.8989945207532</v>
+        <v>-11.93389860012924</v>
       </c>
       <c r="F50" t="n">
-        <v>0.632879205529946</v>
+        <v>0.6426984326612406</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.627251400744983</v>
+        <v>-3.633797552165846</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>12.24587359066545</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.42805129523347</v>
+        <v>-11.45770536116998</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6375400653416006</v>
+        <v>0.6484197690030749</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.802635889612745</v>
+        <v>-3.808121564503428</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>12.17193589806441</v>
       </c>
       <c r="E52" t="n">
-        <v>-10.96721532750755</v>
+        <v>-10.99480080959507</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5803659788317828</v>
+        <v>0.5916253592756672</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.857806853787779</v>
+        <v>-3.863776943883606</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>12.06443370363975</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.36356852038409</v>
+        <v>-10.39351061698312</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5562499569973234</v>
+        <v>0.5687792908168552</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.014757380254391</v>
+        <v>-4.019968116785398</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>11.92317136676062</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.932268787869106</v>
+        <v>-9.958257009009932</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5429743619158132</v>
+        <v>0.5582923562406327</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.079092956418632</v>
+        <v>-4.086765045883884</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>11.74267698315457</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.441307431304379</v>
+        <v>-9.466667221908802</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4548762560938384</v>
+        <v>0.4694348968538378</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.193310206409851</v>
+        <v>-4.202697387547369</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>11.52476241767819</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.114340260135112</v>
+        <v>-9.137042313262665</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4206398841627247</v>
+        <v>0.4372409241660334</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.454213617439768</v>
+        <v>-4.460301538261171</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>11.26663675417291</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.598123851388694</v>
+        <v>-8.619136997449665</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3908679875006397</v>
+        <v>0.407534489018157</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.435688008918726</v>
+        <v>-4.442207975733905</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>10.96710811393604</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.492652259695749</v>
+        <v>-8.513338098185677</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3507924485021162</v>
+        <v>0.3658616890729429</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.504920106345773</v>
+        <v>-4.509188197072175</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>10.63612949765646</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.940301095106168</v>
+        <v>-7.960659626025052</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3510150176504255</v>
+        <v>0.365285627747907</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.742558495225943</v>
+        <v>-4.746381447655727</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>10.27589206990435</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.851391266508006</v>
+        <v>-7.868594552442034</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4651275292189099</v>
+        <v>0.4795683392533338</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.802586703755257</v>
+        <v>-4.806723871453243</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>9.895244748938175</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.521661619439135</v>
+        <v>-7.533968384110358</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4179952389886961</v>
+        <v>0.43281572580553</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.914787739108849</v>
+        <v>-4.917275276648778</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>9.507826234804964</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.239169001023212</v>
+        <v>-7.249066781971557</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3899777109074023</v>
+        <v>0.4058324896487326</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.106197206654884</v>
+        <v>-5.108030129052726</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>9.123038920035658</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.060223405782501</v>
+        <v>-7.067555095373867</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3559115389132311</v>
+        <v>0.3723292866767556</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.057349824752404</v>
+        <v>-5.058213916739959</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>8.759393915153503</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.846805777159523</v>
+        <v>-6.850523991166574</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1534783523744626</v>
+        <v>0.1703281461317641</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.051811780650355</v>
+        <v>-5.050044319766721</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>8.428552670715343</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.789016352416144</v>
+        <v>-6.792485812669202</v>
       </c>
       <c r="F65" t="n">
-        <v>0.06522313891838719</v>
+        <v>0.08367019362237922</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.107964667538518</v>
+        <v>-5.106747083374237</v>
       </c>
     </row>
     <row r="66">
@@ -1951,10 +1951,10 @@
         <v>8.141696859292281</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.517848575958315</v>
+        <v>-6.519720775264681</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1089252458040688</v>
+        <v>0.1246491015169818</v>
       </c>
       <c r="G66" t="n">
         <v>-5.075535033399563</v>
@@ -1974,13 +1974,13 @@
         <v>7.916342298808714</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.402937433916485</v>
+        <v>-6.403578956755729</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.0229142438121127</v>
+        <v>-0.004571927530854477</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.030824819195067</v>
+        <v>-5.031715095788305</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>7.757639783470145</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.185801591286458</v>
+        <v>-6.189807835956026</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.05678403126365804</v>
+        <v>-0.03905705321596094</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.01703862430273</v>
+        <v>-5.016750593640212</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>7.674678078686304</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.208032321511709</v>
+        <v>-6.211357766433507</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.1363459556328274</v>
+        <v>-0.1188022698249144</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.908359418413562</v>
+        <v>-4.906735972861188</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>7.670141071507535</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.347059485387998</v>
+        <v>-6.347347516050516</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.1710798350719266</v>
+        <v>-0.1553428870561719</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.842020719914536</v>
+        <v>-4.839664105403025</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>7.745216666242526</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.366697939650587</v>
+        <v>-6.367444200912566</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.1693778357025022</v>
+        <v>-0.1546751796112439</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.785710725392272</v>
+        <v>-4.781783034539754</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>7.904196530822241</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.476948221880762</v>
+        <v>-6.477419544783064</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.2773238726325337</v>
+        <v>-0.261154878623002</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.65917361842699</v>
+        <v>-4.65985441817476</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>8.139850693548912</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.570257064233744</v>
+        <v>-6.574027647452161</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2761324730739366</v>
+        <v>-0.2602253251212394</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.413562017116209</v>
+        <v>-4.413365632573583</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>8.4505355514624</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.864742232052689</v>
+        <v>-6.862582002083804</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.2841318701102312</v>
+        <v>-0.2687353219683614</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.118945926268847</v>
+        <v>-4.122768878698631</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>8.831889410294362</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.096764023013757</v>
+        <v>-7.098492206988865</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.4187731125345421</v>
+        <v>-0.4044632255285355</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.856890392588858</v>
+        <v>-3.860228929813498</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>9.270364965237748</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.371178690576336</v>
+        <v>-7.371780936507055</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5198325981698256</v>
+        <v>-0.5037421579773442</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.500046586334772</v>
+        <v>-3.502691231508801</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>9.759287932666066</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.875769134399301</v>
+        <v>-7.875847688216351</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3978647048963055</v>
+        <v>-0.3841570638210184</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.3738891561519</v>
+        <v>-3.378955877351648</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>10.27861147166223</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.275398586340147</v>
+        <v>-8.27534621712878</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4885419943781003</v>
+        <v>-0.4734465692015902</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.388408520003374</v>
+        <v>-3.393147933632079</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>10.81706477525016</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.745281335329695</v>
+        <v>-8.742675967064192</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5306206557114079</v>
+        <v>-0.5167166300934948</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.114897221336875</v>
+        <v>-3.1203959885304</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>11.36265675724624</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.318056492352369</v>
+        <v>-9.317166215759132</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5966582312450742</v>
+        <v>-0.5833171746493553</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.743036543723329</v>
+        <v>-2.74903281842484</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>11.89297784710918</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.888959450068675</v>
+        <v>-9.887728773601554</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.6137829633620518</v>
+        <v>-0.6032043826659372</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.582734387729235</v>
+        <v>-2.590471938708695</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>12.39479991101204</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.78719616343382</v>
+        <v>-10.78768057863896</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.6071713504269802</v>
+        <v>-0.5953228163552181</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.190881763676374</v>
+        <v>-2.198108714845007</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>12.85219368472625</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.59245134201702</v>
+        <v>-11.59263463425681</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.6756440942892076</v>
+        <v>-0.6634420680407188</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.957367450191348</v>
+        <v>-1.96785438476757</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>13.24559797828243</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.54016386782105</v>
+        <v>-12.54220626706436</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5759331158466218</v>
+        <v>-0.5664411962863705</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.72998033443625</v>
+        <v>-1.740414899801105</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>13.56465584493335</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.70846860420531</v>
+        <v>-13.7083376811769</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.6703155270326251</v>
+        <v>-0.6612032842547837</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.577808498506867</v>
+        <v>-1.587221864250069</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>13.79214705958101</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.82922209666843</v>
+        <v>-14.82979815799347</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.7284715362555723</v>
+        <v>-0.7211005697556805</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.314679395993857</v>
+        <v>-1.321631408802814</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>13.92115229701423</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.9565479251581</v>
+        <v>-15.95895690888097</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7541455421281971</v>
+        <v>-0.7453998838299241</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.237919224432817</v>
+        <v>-1.243300160900766</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>13.94987518966077</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.2957726751411</v>
+        <v>-17.29688552088265</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9379221971175059</v>
+        <v>-0.929215815727758</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.075613946103939</v>
+        <v>-1.083953743014118</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>13.87320375617977</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.7859516768892</v>
+        <v>-18.7866717535455</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9527034070258146</v>
+        <v>-0.945659748096966</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.117221284534944</v>
+        <v>-1.125089758542822</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>13.69136606870717</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.34546751448709</v>
+        <v>-20.34656726792579</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.03284139272002</v>
+        <v>-1.028651855810667</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.040513482185271</v>
+        <v>-1.050934955247285</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>13.41406714797158</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.99179841222846</v>
+        <v>-21.99427285746554</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.146836073562929</v>
+        <v>-1.143576090155339</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.051222985909803</v>
+        <v>-1.059078367614839</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>13.04344533629042</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.64457072296796</v>
+        <v>-23.64809255243238</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.284789668606196</v>
+        <v>-1.282053377312276</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.241375592383033</v>
+        <v>-1.248537082037457</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>12.58781915421502</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.70268072968729</v>
+        <v>-25.70436963675387</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.295983587535872</v>
+        <v>-1.296507279649541</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.479472211862663</v>
+        <v>-1.482823841390145</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>12.05596562453557</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.69743708295552</v>
+        <v>-27.70081489708868</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.297201171700153</v>
+        <v>-1.298746063435476</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.458747096464211</v>
+        <v>-1.4582103120477</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>11.45447035277674</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.01248353294373</v>
+        <v>-30.01935699193563</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.609845363560571</v>
+        <v>-1.613092254665319</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.705615558847797</v>
+        <v>-1.704947851402869</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>10.79280165775353</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.14345220497727</v>
+        <v>-32.14977578724983</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.616653361038269</v>
+        <v>-1.617307976180355</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.98461253240498</v>
+        <v>-1.978720996126203</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>10.0875664120221</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.52208796986775</v>
+        <v>-34.52803187535789</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.756845739867472</v>
+        <v>-1.762161214821212</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.144862319187707</v>
+        <v>-2.137321152750873</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>9.328306301835385</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.59675973968187</v>
+        <v>-36.60452347526702</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.974086320920232</v>
+        <v>-1.979716011142174</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.376740094817517</v>
+        <v>-2.367562390525467</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>8.559372735257242</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.89720827200156</v>
+        <v>-38.90660854544192</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.03345991430746</v>
+        <v>-2.038945589198143</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.641767581242578</v>
+        <v>-2.63086169297542</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>7.751149041787685</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.23347734489621</v>
+        <v>-41.24503784830545</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.436964687889457</v>
+        <v>-2.445108100257011</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.818775515662715</v>
+        <v>-2.808471873326276</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>6.97903831465179</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.57863609142039</v>
+        <v>-43.59449087016172</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.613383468681716</v>
+        <v>-2.620191466159413</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.006047815510764</v>
+        <v>-2.998388818348355</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>6.160743563505997</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.91802113239137</v>
+        <v>-45.93714898684313</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.939486547863429</v>
+        <v>-2.945090053479688</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.365287513184886</v>
+        <v>-3.351566779806757</v>
       </c>
     </row>
   </sheetData>
